--- a/Lab2/OdometerCorrectionData.xlsx
+++ b/Lab2/OdometerCorrectionData.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mindo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McGill\FALL 2019\ECSE 211 Design Principles and Methods\Labs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{504AE5EC-2AAE-4612-B60D-C2281BBE70C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA55CC6B-178C-4C19-9DEE-84D343F0E6E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{9D9E9656-AEC8-42A7-BF30-62317BCFE20A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D9E9656-AEC8-42A7-BF30-62317BCFE20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>X</t>
   </si>
@@ -49,13 +48,7 @@
     <t xml:space="preserve">Error </t>
   </si>
   <si>
-    <t>SENSOR</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>CORRECTED</t>
+    <t>Odometer correction</t>
   </si>
 </sst>
 </file>
@@ -407,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2EC221-4D54-4E34-BF3F-FAC6F442AAA6}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>17.100000000000001</v>
       </c>
@@ -450,7 +443,7 @@
         <v>1.6565627063289812</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>17.5</v>
       </c>
@@ -468,7 +461,7 @@
         <v>2.0418863827353384</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>17.399999999999999</v>
       </c>
@@ -486,7 +479,7 @@
         <v>1.7557049866079417</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15.9</v>
       </c>
@@ -504,7 +497,7 @@
         <v>0.66189122973491665</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17.8</v>
       </c>
@@ -522,7 +515,7 @@
         <v>3.8710463701691831</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18.899999999999999</v>
       </c>
@@ -540,7 +533,7 @@
         <v>2.1483016547961764</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17.62</v>
       </c>
@@ -558,7 +551,7 @@
         <v>2.0229928324143924</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15.39</v>
       </c>
@@ -576,7 +569,7 @@
         <v>1.6624379687675577</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15.03</v>
       </c>
@@ -594,7 +587,7 @@
         <v>1.8208239892971525</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14.45</v>
       </c>
@@ -612,267 +605,17 @@
         <v>2.0890428430264412</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>17.3</v>
-      </c>
-      <c r="B14">
-        <v>16.399999999999999</v>
-      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>18.86</v>
+        <v>14.2</v>
       </c>
       <c r="D14">
-        <v>19.7</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E27" si="1">SQRT((C14-A14)^2+(D14-B14)^2)</f>
-        <v>3.6501506818212315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C15">
-        <v>16.25</v>
-      </c>
-      <c r="D15">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1.9220041623263961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>16.8</v>
-      </c>
-      <c r="B16">
-        <v>15.6</v>
-      </c>
-      <c r="C16">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D16">
-        <v>20.98</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>5.4391543460357887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="B17">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C17">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="D17">
-        <v>21.14</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>4.7560172413480606</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>18.14</v>
-      </c>
-      <c r="B18">
-        <v>22.15</v>
-      </c>
-      <c r="C18">
-        <v>17.2</v>
-      </c>
-      <c r="D18">
-        <v>21.9</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.97267671916212861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>18.97</v>
-      </c>
-      <c r="B19">
-        <v>20.48</v>
-      </c>
-      <c r="C19">
-        <v>19.2</v>
-      </c>
-      <c r="D19">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>2.5902316498722677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>14.9</v>
-      </c>
-      <c r="B20">
-        <v>19.2</v>
-      </c>
-      <c r="C20">
-        <v>14.59</v>
-      </c>
-      <c r="D20">
-        <v>17.690000000000001</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>1.5414927829866716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>14.9</v>
-      </c>
-      <c r="B21">
-        <v>16.3</v>
-      </c>
-      <c r="C21">
-        <v>14.87</v>
-      </c>
-      <c r="D21">
-        <v>17.32</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>1.0204410811016966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>14.3</v>
-      </c>
-      <c r="B22">
         <v>19.100000000000001</v>
-      </c>
-      <c r="C22">
-        <v>15.22</v>
-      </c>
-      <c r="D22">
-        <v>21.61</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>2.673293848419958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>14.95</v>
-      </c>
-      <c r="B23">
-        <v>20.52</v>
-      </c>
-      <c r="C23">
-        <v>15.2</v>
-      </c>
-      <c r="D23">
-        <v>21.6</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>1.1085576214162276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>11.9</v>
-      </c>
-      <c r="B24">
-        <v>21.1</v>
-      </c>
-      <c r="C24">
-        <v>11.61</v>
-      </c>
-      <c r="D24">
-        <v>21.33</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.37013511046643371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>13.73</v>
-      </c>
-      <c r="B25">
-        <v>20.02</v>
-      </c>
-      <c r="C25">
-        <v>14.3</v>
-      </c>
-      <c r="D25">
-        <v>17.5</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>2.5836601943754132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>14.2</v>
-      </c>
-      <c r="B26">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C26">
-        <v>15.11</v>
-      </c>
-      <c r="D26">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>1.8146625030566981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>14.9</v>
-      </c>
-      <c r="B27">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C27">
-        <v>14.31</v>
-      </c>
-      <c r="D27">
-        <v>21.75</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>2.4229321080046811</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/OdometerCorrectionData.xlsx
+++ b/Lab2/OdometerCorrectionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McGill\FALL 2019\ECSE 211 Design Principles and Methods\Labs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA55CC6B-178C-4C19-9DEE-84D343F0E6E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955D467-F1BF-4DE8-BCC1-48F3671045A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D9E9656-AEC8-42A7-BF30-62317BCFE20A}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2EC221-4D54-4E34-BF3F-FAC6F442AAA6}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
         <v>17.3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>SQRT((C10-A10)^2+(D10-B10)^2)</f>
         <v>1.8208239892971525</v>
       </c>
     </row>
@@ -600,10 +600,6 @@
       <c r="D11">
         <v>21</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2.0890428430264412</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -611,11 +607,155 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12.88</v>
+      </c>
+      <c r="B14">
+        <v>16.5</v>
+      </c>
       <c r="C14">
-        <v>14.2</v>
+        <v>12.1</v>
       </c>
       <c r="D14">
-        <v>19.100000000000001</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E14">
+        <f>SQRT((C14-A14)^2+(D14-B14)^2)</f>
+        <v>1.6026228502052495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11.31</v>
+      </c>
+      <c r="B15">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="C15">
+        <v>11.7</v>
+      </c>
+      <c r="D15">
+        <v>21.1</v>
+      </c>
+      <c r="E15">
+        <f>SQRT((C15-A15)^2+(D15-B15)^2)</f>
+        <v>2.2835498680782074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12.05</v>
+      </c>
+      <c r="B16">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C16">
+        <v>12.5</v>
+      </c>
+      <c r="D16">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12.88</v>
+      </c>
+      <c r="B17">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C17">
+        <v>13.3</v>
+      </c>
+      <c r="D17">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11.74</v>
+      </c>
+      <c r="B18">
+        <v>17.71</v>
+      </c>
+      <c r="C18">
+        <v>11.8</v>
+      </c>
+      <c r="D18">
+        <v>19.8</v>
+      </c>
+      <c r="E18">
+        <f>SQRT((C18-A18)^2+(D18-B18)^2)</f>
+        <v>2.0908610666421619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11.56</v>
+      </c>
+      <c r="B19">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="C19">
+        <v>11.75</v>
+      </c>
+      <c r="D19">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="B20">
+        <v>15.31</v>
+      </c>
+      <c r="C20">
+        <v>10.3</v>
+      </c>
+      <c r="D20">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>13.41</v>
+      </c>
+      <c r="B21">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="C21">
+        <v>13.1</v>
+      </c>
+      <c r="D21">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10.16</v>
+      </c>
+      <c r="B22">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="C22">
+        <v>10.1</v>
+      </c>
+      <c r="D22">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10.75</v>
+      </c>
+      <c r="B23">
+        <v>17.04</v>
+      </c>
+      <c r="C23">
+        <v>10.6</v>
+      </c>
+      <c r="D23">
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/OdometerCorrectionData.xlsx
+++ b/Lab2/OdometerCorrectionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McGill\FALL 2019\ECSE 211 Design Principles and Methods\Labs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955D467-F1BF-4DE8-BCC1-48F3671045A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA73E4F-2670-48DE-BAD4-2F72EFD5B519}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D9E9656-AEC8-42A7-BF30-62317BCFE20A}"/>
   </bookViews>
@@ -400,15 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2EC221-4D54-4E34-BF3F-FAC6F442AAA6}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17.100000000000001</v>
       </c>
@@ -439,11 +444,11 @@
         <v>22.31</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E11" si="0">SQRT((C2-A2)^2+(D2-B2)^2)</f>
+        <f t="shared" ref="E2:E9" si="0">SQRT((C2-A2)^2+(D2-B2)^2)</f>
         <v>1.6565627063289812</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17.5</v>
       </c>
@@ -461,7 +466,7 @@
         <v>2.0418863827353384</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17.399999999999999</v>
       </c>
@@ -479,7 +484,7 @@
         <v>1.7557049866079417</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.9</v>
       </c>
@@ -497,7 +502,7 @@
         <v>0.66189122973491665</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17.8</v>
       </c>
@@ -515,7 +520,7 @@
         <v>3.8710463701691831</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18.899999999999999</v>
       </c>
@@ -533,7 +538,7 @@
         <v>2.1483016547961764</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17.62</v>
       </c>
@@ -551,7 +556,7 @@
         <v>2.0229928324143924</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15.39</v>
       </c>
@@ -569,7 +574,7 @@
         <v>1.6624379687675577</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15.03</v>
       </c>
@@ -587,7 +592,7 @@
         <v>1.8208239892971525</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14.45</v>
       </c>
@@ -601,12 +606,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12.88</v>
       </c>
@@ -624,7 +629,7 @@
         <v>1.6026228502052495</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11.31</v>
       </c>
@@ -638,11 +643,11 @@
         <v>21.1</v>
       </c>
       <c r="E15">
-        <f>SQRT((C15-A15)^2+(D15-B15)^2)</f>
+        <f t="shared" ref="E15:E23" si="1">SQRT((C15-A15)^2+(D15-B15)^2)</f>
         <v>2.2835498680782074</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12.05</v>
       </c>
@@ -655,8 +660,12 @@
       <c r="D16">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.57008771254956925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12.88</v>
       </c>
@@ -669,8 +678,12 @@
       <c r="D17">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.45310043036836828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11.74</v>
       </c>
@@ -684,11 +697,11 @@
         <v>19.8</v>
       </c>
       <c r="E18">
-        <f>SQRT((C18-A18)^2+(D18-B18)^2)</f>
+        <f t="shared" si="1"/>
         <v>2.0908610666421619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11.56</v>
       </c>
@@ -701,8 +714,12 @@
       <c r="D19">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.0867382389517728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10.220000000000001</v>
       </c>
@@ -715,8 +732,12 @@
       <c r="D20">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>4.1907636535600519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13.41</v>
       </c>
@@ -729,8 +750,12 @@
       <c r="D21">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.61400325732034822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10.16</v>
       </c>
@@ -743,8 +768,12 @@
       <c r="D22">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.3413426109685771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10.75</v>
       </c>
@@ -756,6 +785,38 @@
       </c>
       <c r="D23">
         <v>15.4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.6468454693747061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>AVERAGE(A14:A23)</f>
+        <v>11.696</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B14:B23)</f>
+        <v>18.053000000000001</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(E14:E23)</f>
+        <v>1.5879915158019013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>STDEV(A14:A23)</f>
+        <v>1.1288657040488821</v>
+      </c>
+      <c r="B25">
+        <f>STDEV(B14:B23)</f>
+        <v>1.4070856406061432</v>
+      </c>
+      <c r="E25">
+        <f>STDEV(E14:E23)</f>
+        <v>1.1105368800425508</v>
       </c>
     </row>
   </sheetData>
